--- a/data/gangwon_juso.xlsx
+++ b/data/gangwon_juso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choeseeun/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B476FAE9-0C18-BA40-80A3-A148E980FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B263E2-3786-5741-8755-DFB49AAA82F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2380" windowWidth="27900" windowHeight="16740" xr2:uid="{9FE0FCB1-46A4-0C4D-B6EE-3E8E2F493001}"/>
+    <workbookView xWindow="1500" yWindow="1280" windowWidth="27900" windowHeight="16740" xr2:uid="{9FE0FCB1-46A4-0C4D-B6EE-3E8E2F493001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>강원</t>
   </si>
@@ -138,6 +138,14 @@
   </si>
   <si>
     <t>연세정신건강의학과의원</t>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,28 +530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F3FEB-D4A6-8646-BEBF-EE428E8AB844}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
@@ -551,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -570,10 +571,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -586,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -602,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -618,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -634,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -650,10 +651,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -681,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -696,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -711,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -726,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -741,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -753,12 +754,27 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/gangwon_juso.xlsx
+++ b/data/gangwon_juso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choeseeun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF191732-8726-CE43-8185-E5B42A0BC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0B557-31CB-CE47-8E99-4FBB1E25F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>영월군</t>
   </si>
   <si>
-    <t>중앙1로 59</t>
-  </si>
-  <si>
     <t>강원특별자치도영월의료원</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>하늘빛정신건강의학과의원</t>
-  </si>
-  <si>
-    <t>원일로 150-1</t>
   </si>
   <si>
     <t>홍성국신경정신과의원</t>
@@ -141,6 +135,14 @@
   </si>
   <si>
     <t>내안에병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영월군 중앙1로 59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주시 원일로 150-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +518,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -549,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>36.995937499999997</v>
@@ -566,13 +568,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>37.331946799999997</v>
@@ -586,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
       <c r="E4">
         <v>37.332858000000002</v>
@@ -606,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
       <c r="E5">
         <v>37.334361299999998</v>
@@ -626,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>37.351199999999999</v>
@@ -646,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="E7">
         <v>40.188281000000003</v>
@@ -666,13 +668,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>37.330198799999998</v>
@@ -686,13 +688,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>37.233682700000003</v>
@@ -706,13 +708,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
       <c r="E10">
         <v>37.348251099999999</v>
@@ -726,13 +728,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>37.334361299999998</v>
@@ -746,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
       <c r="E12">
         <v>37.356151799999999</v>
@@ -766,13 +768,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
       <c r="E13">
         <v>37.344005000000003</v>
@@ -786,13 +788,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
       </c>
       <c r="E14">
         <v>37.334361299999998</v>
@@ -806,13 +808,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>37.685881899999998</v>
@@ -826,13 +828,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
       <c r="E16">
         <v>37.689989799999999</v>

--- a/data/gangwon_juso.xlsx
+++ b/data/gangwon_juso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choeseeun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0B557-31CB-CE47-8E99-4FBB1E25F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557FA307-3A14-C64C-AA66-6C77544C009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="11420" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>연세소울정신건강의학과의원</t>
   </si>
   <si>
-    <t>원주시 원일로 114</t>
-  </si>
-  <si>
     <t>이신경정신과의원</t>
   </si>
   <si>
@@ -142,7 +139,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원주시 원일로 150-1</t>
+    <t>원주시 원일로 114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주시 원일로 150-137.35219</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +519,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -551,16 +552,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>36.995937499999997</v>
+        <v>37.186540000000001</v>
       </c>
       <c r="F2">
-        <v>127.09578209999999</v>
+        <v>128.46510000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -631,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
       </c>
       <c r="E6">
         <v>37.351199999999999</v>
@@ -751,10 +752,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
       <c r="E12">
         <v>37.356151799999999</v>
@@ -771,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13">
         <v>37.344005000000003</v>
@@ -791,10 +792,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
       </c>
       <c r="E14">
         <v>37.334361299999998</v>
@@ -814,13 +815,13 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>37.685881899999998</v>
       </c>
       <c r="F15">
-        <v>126.7718258</v>
+        <v>127.9472</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -828,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
       <c r="E16">
         <v>37.689989799999999</v>
